--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
